--- a/Overall Report.xlsx
+++ b/Overall Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Overall Report</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Status / Accountability</t>
   </si>
   <si>
-    <t>AVR, Secure, , FFE- COMP-BCD-1297</t>
+    <t>4 GB RAM PC3 12800, , , 740617140743</t>
   </si>
   <si>
     <t>Furniture, Fixtures and Equipment</t>
@@ -50,70 +50,10 @@
     <t>Computer Equipment</t>
   </si>
   <si>
-    <t>Shoppers Guide</t>
-  </si>
-  <si>
-    <t>Ladi Joy Bacong</t>
-  </si>
-  <si>
-    <t>AVR, Secure, , FFE- COMP-BCD-1313</t>
-  </si>
-  <si>
-    <t>Renewable Energy Department</t>
-  </si>
-  <si>
-    <t>Alma Lucerna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVR, , , </t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>AVR, Secure, , IT20190321</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Damaged</t>
-  </si>
-  <si>
-    <t>Trading Department</t>
-  </si>
-  <si>
-    <t>Heziel Aplaon</t>
-  </si>
-  <si>
-    <t>AVR, Secure, , FFE- COMP-BCD-1348</t>
-  </si>
-  <si>
-    <t>AVR, Secure, , FFE- COMP-BCD-1362</t>
-  </si>
-  <si>
-    <t>Contracts &amp; Compliance</t>
-  </si>
-  <si>
-    <t>Teresa Tan</t>
-  </si>
-  <si>
-    <t>AVR, , , FFE- COMP-BCD-1367</t>
-  </si>
-  <si>
-    <t>HR/Admin</t>
-  </si>
-  <si>
-    <t>Babylyn C. Providencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVR , Secure Standard, , </t>
-  </si>
-  <si>
-    <t>Engineering/ Renewable Energy</t>
-  </si>
-  <si>
-    <t>Ana Marie Mangubat</t>
+    <t>EMG-Billing</t>
+  </si>
+  <si>
+    <t>Celina Marie Grabillo</t>
   </si>
 </sst>
 </file>
@@ -499,7 +439,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,13 +447,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="39.990234" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="35.2771" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -570,248 +510,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>240</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>240</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>240</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <protectedRanges>
     <protectedRange name="p72c8ec415e21b0ae7640bf770ec725aa" sqref="A3:G3" password="C724"/>
-    <protectedRange name="p6804d5b44d5f0d4113024046398c096e" sqref="A4:G4" password="C724"/>
-    <protectedRange name="pc8420570319781b040e4fc77750462f7" sqref="A5:G5" password="C724"/>
-    <protectedRange name="p8d708506dfc8ef2b51c8cf4c5cc3f33e" sqref="A6:G6" password="C724"/>
-    <protectedRange name="p7e546d096378a890fc57fdb0eb79006b" sqref="A7:G7" password="C724"/>
-    <protectedRange name="p41ea1506cf0897ae247c4f5c88018854" sqref="A8:G8" password="C724"/>
-    <protectedRange name="pb50b084456ae1386075f58d9fe331648" sqref="A9:G9" password="C724"/>
-    <protectedRange name="p104b3f0827a65187bcaf8c19e19d8450" sqref="A10:G10" password="C724"/>
-    <protectedRange name="pbbed5f6e5fdf4ff6b71bd6209e3a80cc" sqref="A11:G11" password="C724"/>
-    <protectedRange name="p4dd2f9099d40a8de727a847709c3a2b4" sqref="A12:G12" password="C724"/>
-    <protectedRange name="p7da544e962e0ee3a2fcd81e0a9e771e0" sqref="A13:G13" password="C724"/>
   </protectedRanges>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Overall Report.xlsx
+++ b/Overall Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t>Overall Report</t>
   </si>
@@ -41,19 +41,1264 @@
     <t>Status / Accountability</t>
   </si>
   <si>
+    <t>18.5 inches Monitor, AOC, , KCYH51A002188</t>
+  </si>
+  <si>
+    <t>Furniture, Fixtures and Equipment</t>
+  </si>
+  <si>
+    <t>Computer Equipment</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>Jason Flor</t>
+  </si>
+  <si>
+    <t>18.5inhes Monitor, AOC, , ANII31A024617</t>
+  </si>
+  <si>
+    <t>Trading Department</t>
+  </si>
+  <si>
+    <t>Rowena Ricarse</t>
+  </si>
+  <si>
+    <t>19inches Monitor, AOC, , KPPH51A005983</t>
+  </si>
+  <si>
+    <t>Stephine David Severino</t>
+  </si>
+  <si>
+    <t>21.5inches Monitor, Samsung, S22E390H, 0LU4HTMG200602Z</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Charmaine Rei Plaza</t>
+  </si>
+  <si>
+    <t>3-1 Printer, Epson, L355, S45K033549</t>
+  </si>
+  <si>
+    <t>3-In-1 Printer ( Print, Copy Scan ) , Continuous Ink, Canon, G2010, KMFJ19520</t>
+  </si>
+  <si>
+    <t>HR Department</t>
+  </si>
+  <si>
     <t>4 GB RAM PC3 12800, , , 740617140743</t>
   </si>
   <si>
-    <t>Furniture, Fixtures and Equipment</t>
-  </si>
-  <si>
-    <t>Computer Equipment</t>
-  </si>
-  <si>
     <t>EMG-Billing</t>
   </si>
   <si>
     <t>Celina Marie Grabillo</t>
+  </si>
+  <si>
+    <t>40inches Curve Monitor, Philips, BDM4037UW/71, AU0A1733003873</t>
+  </si>
+  <si>
+    <t>40inches Curve Monitor, Philips, BDM4037UW/71, AU0A1733003872</t>
+  </si>
+  <si>
+    <t>Audio Jack, , , IT20190261</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Audio Jack, Yue Tong, , IT20190384</t>
+  </si>
+  <si>
+    <t>AUX Cable, , , IT20190097</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>AUX Cable 2RCA 3.55mm Male, , , IT20190031</t>
+  </si>
+  <si>
+    <t>AVR, Delkin, , IT20190251</t>
+  </si>
+  <si>
+    <t>AVR, Secure, , IT20190227</t>
+  </si>
+  <si>
+    <t>HR/Admin</t>
+  </si>
+  <si>
+    <t>Alma Bella Redocto Gabitoya</t>
+  </si>
+  <si>
+    <t>AVR, Secure, , YY19082112771</t>
+  </si>
+  <si>
+    <t>Alma Lucerna</t>
+  </si>
+  <si>
+    <t>AVR, Secure, , YY19071926433</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Heziel Aplaon</t>
+  </si>
+  <si>
+    <t>AVR, Secure Standard, , 9B1932A02357</t>
+  </si>
+  <si>
+    <t>Renewable Energy Department</t>
+  </si>
+  <si>
+    <t>Crizeal Precious Claire Hilado</t>
+  </si>
+  <si>
+    <t>AVR, Secure, , IT2019322</t>
+  </si>
+  <si>
+    <t>Yoorekka</t>
+  </si>
+  <si>
+    <t>John Lendre Sucaldito</t>
+  </si>
+  <si>
+    <t>AVR, Secure, , IT20190226</t>
+  </si>
+  <si>
+    <t>Contract and Compliance</t>
+  </si>
+  <si>
+    <t>Babylyn Providencia</t>
+  </si>
+  <si>
+    <t>AVR, Micropulse Persono Series, , 128956</t>
+  </si>
+  <si>
+    <t>AVR, Micropulse Persono Series, , 129291</t>
+  </si>
+  <si>
+    <t>AVR, Micropulse Persono Series, , IT20190082</t>
+  </si>
+  <si>
+    <t>AVR, Micropulse, , 06-2015 129230</t>
+  </si>
+  <si>
+    <t>AVR, Secure, , IT20190263</t>
+  </si>
+  <si>
+    <t>AVR, IDEAL, PSL-500, IT20190367</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>AVR, SECURE, , IT20190220</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Zyndyryn Rosales</t>
+  </si>
+  <si>
+    <t>AVR, SECURE, , IT20190187</t>
+  </si>
+  <si>
+    <t>AVR, Delkin, , IT20190005</t>
+  </si>
+  <si>
+    <t>Marianita Tabilla</t>
+  </si>
+  <si>
+    <t>AVR, Delkin, , IT20190156</t>
+  </si>
+  <si>
+    <t>Accounting / Finance</t>
+  </si>
+  <si>
+    <t>Imelda Espera</t>
+  </si>
+  <si>
+    <t>AVR, SECURE, , IT20190133</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>Maylen Cabaylo</t>
+  </si>
+  <si>
+    <t>AVR, SECURE, , IT20190278</t>
+  </si>
+  <si>
+    <t>Kervic Biñas</t>
+  </si>
+  <si>
+    <t>AVR, SECURE, , IT20190321</t>
+  </si>
+  <si>
+    <t>Gebby Jalandoni</t>
+  </si>
+  <si>
+    <t>AVR, SECURE, , IT20190318</t>
+  </si>
+  <si>
+    <t>AVR 220V, SECURE, , IT20190342</t>
+  </si>
+  <si>
+    <t>Zara Joy Gabales</t>
+  </si>
+  <si>
+    <t>AVR 220V, SECURE, , IT20190322</t>
+  </si>
+  <si>
+    <t>Genie Saludo</t>
+  </si>
+  <si>
+    <t>AVR 220V, Micropulse, , 127919</t>
+  </si>
+  <si>
+    <t>Shoppers Guide</t>
+  </si>
+  <si>
+    <t>Angelika Caballero</t>
+  </si>
+  <si>
+    <t>AVR 220V, SECURE, , ENI5072818837</t>
+  </si>
+  <si>
+    <t>Silena Jomiller</t>
+  </si>
+  <si>
+    <t>AVR 220V, Secure, , IT20190249</t>
+  </si>
+  <si>
+    <t>AVR 220VA, Secure, , IT20190394</t>
+  </si>
+  <si>
+    <t>Prency Francisco</t>
+  </si>
+  <si>
+    <t>AVR 220VA, Secure, , IT20190349</t>
+  </si>
+  <si>
+    <t>Sherny Mago</t>
+  </si>
+  <si>
+    <t>AVR 220VAC, SECURE, , IT20190257</t>
+  </si>
+  <si>
+    <t>Cristy Cesar</t>
+  </si>
+  <si>
+    <t>Battery Charger, Eveready, EV2PC4, IT20190279</t>
+  </si>
+  <si>
+    <t>Office Equipment</t>
+  </si>
+  <si>
+    <t>Charger, Asus, PA-1650-33, 0A001-00444700</t>
+  </si>
+  <si>
+    <t>Hennelen Tanan</t>
+  </si>
+  <si>
+    <t>Charger, Acer, ADP-45 HE D, 43BW8CJ03Z8</t>
+  </si>
+  <si>
+    <t>Borrowed</t>
+  </si>
+  <si>
+    <t>Charger, ASUS, W15-065NIA, 0A001-00447100</t>
+  </si>
+  <si>
+    <t>Carlos Antonio Leonardia</t>
+  </si>
+  <si>
+    <t>Charger, HP, JGT:A09, WATFL0AE7XWSV</t>
+  </si>
+  <si>
+    <t>Charger, ASUS , ADP-65DB, Ln261936</t>
+  </si>
+  <si>
+    <t>Charger, Toshiba, , TO214030017672A</t>
+  </si>
+  <si>
+    <t>Ladi Bacong</t>
+  </si>
+  <si>
+    <t>Charger, Acer, A11-065N1A, F258351804031267</t>
+  </si>
+  <si>
+    <t>Annavi Lacambra</t>
+  </si>
+  <si>
+    <t>Charger, Acer, ADD-40KD BB, 391W39704RX</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Charger, NEC, ADP-90YB E, 9803761DB</t>
+  </si>
+  <si>
+    <t>charger, Delta Electronics, Inc., ADP-65HB BB, 602W03505VDA</t>
+  </si>
+  <si>
+    <t>Charger, Toshiba, PA3917U-1ACA, IT20190356</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Rose Brenette Gaudite</t>
+  </si>
+  <si>
+    <t>Charger , ASUS, ADP-65GD 8, IT20190277</t>
+  </si>
+  <si>
+    <t>Medical Equipment</t>
+  </si>
+  <si>
+    <t>Charger Adapter, Samsung, EP-TA50JWE, DK6M731VS/A-E</t>
+  </si>
+  <si>
+    <t>cord usb to printer L120, , , IT20190052</t>
+  </si>
+  <si>
+    <t>Cord USB to Printer L355, , , IT20190185</t>
+  </si>
+  <si>
+    <t>Cord USB to Printer Photocopier, , , IT20190105</t>
+  </si>
+  <si>
+    <t>CPU Core i3, RAM(4GB), 64 Bit OS, x64 Based Processor, Neutron Lite, , IT20190054</t>
+  </si>
+  <si>
+    <t>CPU Core i3-4170, RAM(4GB), 64 bit, , ASUS, , IT20190339</t>
+  </si>
+  <si>
+    <t>CPU core i5-7400 4GB(RAM), 64bit OS, NEUTRON ODYSSEY, , IT20190020</t>
+  </si>
+  <si>
+    <t>Glenn Paul Toledo</t>
+  </si>
+  <si>
+    <t>CPU G3260 Intel Pentium, RAM(2GB), 32-bit OS, x64-based processor, Samsung, , IT20190345</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4150 4GB 64-bit OS, , , IT20190088</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4160 2GB RAM 32-bit OS, , , IT20190281</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4160 2GB RAM 32-bit OS, , , IT20190162</t>
+  </si>
+  <si>
+    <t>Ladylyn Salavante</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4170 4GB 64-bit OS, , , IT20190108</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4170 4GB RAM 64-bit OS, Powerlogic, , IT20190057</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4170 4GB RAM 64-bit OS, , , IT20190182</t>
+  </si>
+  <si>
+    <t>Syndey Sinoro</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4170, 4GB, 64-bit OS, Powerlogic, H81M-S1, IT20190307</t>
+  </si>
+  <si>
+    <t>Ruth Jan Destacamento</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4170, 4GB, 64bit-OS, Powerlogic, H81M-S1, IT20190399</t>
+  </si>
+  <si>
+    <t>Elaisa Jane Febrio</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-7100 4GB 64-bit OS, , , IT20190035</t>
+  </si>
+  <si>
+    <t>CPU intel core i5, Mseries, , IT20190136</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i5, 4GB RAM, 500GB HDD, Casing with PSU, 9400, 9th gen., H310 Motherboard, Fortress, , FFE-COMP-BCD-1377</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i5-7400 4GB RAM 64-bit OS, 500gb HDD, , , IT20190288</t>
+  </si>
+  <si>
+    <t>Aileen Tamano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Intel Core i5-9400F 2.90GHz, 4GB RAM, 64-bit OS, x64-based processor, Trendsonic, , </t>
+  </si>
+  <si>
+    <t>CPU Intel Pentium G2020 2GB RAM 32-bit OS, , , IT2019086</t>
+  </si>
+  <si>
+    <t>CPU Intel ® Core™ i3-4150 CPU @ 3.50Ghz, Rise, , IT-20190007</t>
+  </si>
+  <si>
+    <t>Krystal Gayle Tagalog</t>
+  </si>
+  <si>
+    <t>CPU intel(r) core i3-7100, 4GB (RAM, Fortress, , IT20190232</t>
+  </si>
+  <si>
+    <t>CPU Intel(R) Core(TM) i5-9400F @ 290GHz, 4.00GB(RAM), 64-bit OS, x64-based processor, Trendsonic, , FFE-COMP-BCD-1346</t>
+  </si>
+  <si>
+    <t>CPU INTEL® CORE(TM) i3-7100, 4Gb (RAM), 64bit OS, , , IT20190073</t>
+  </si>
+  <si>
+    <t>CPU INTEL® CORE™ i3-4160 @ 360Ghz, , , IT20190270</t>
+  </si>
+  <si>
+    <t>CPU INTEL® CORE™ i3-4170 @ 3.70Ghz, PowerLogic, , IT20190059</t>
+  </si>
+  <si>
+    <t>CPU Inter® Pentium® CPU G2030 @ 3.00Ghz, , , IT20190370</t>
+  </si>
+  <si>
+    <t>CPU Pentium, RAM(2GB), 64 Bit OS, 500GB HD, Samsung, , IT20190049</t>
+  </si>
+  <si>
+    <t>CPU, AMD Ryzen 7 2700, Eight-Core Processor, 3.20GHz, 8GB RAM, 64-bit OS, x64-based processor, , , IT2019120</t>
+  </si>
+  <si>
+    <t>CPU, Core i3-4160, RAM(4GB), 64 bit, x64 Based Processor, 500GB HDD, Orion, , IT20190343</t>
+  </si>
+  <si>
+    <t>CPU, Core i5, RAM(4GB), 64 bit, x64 Based Processor, 500GB HDD, Fortress, , IT20190099</t>
+  </si>
+  <si>
+    <t>Liza Marie Tasic</t>
+  </si>
+  <si>
+    <t>CPU, Xeon, E3-1220, 64 bit, RAM(12GB), 1TB HDD and 500GB HDD, HP, HP Proliant, CN65270AG4</t>
+  </si>
+  <si>
+    <t>CPU,Core i5, 32 bit, x64 Based Processor 1TB HDD, , , IT20190176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDR3 2G/1333/2568 UL CL9 , ZEPPELIN, , 1014010MB0 ZPZB731825 </t>
+  </si>
+  <si>
+    <t>DDR3 4GB KINGSTON PC 12800, KINGSTON, , GEN-0000481005VSRETD PQ149</t>
+  </si>
+  <si>
+    <t>Dot Matrix Printer, EPSON, LX-310, Q7CT086974</t>
+  </si>
+  <si>
+    <t>Earphones, Samsung, , FFE- COMP-BCD-1308</t>
+  </si>
+  <si>
+    <t>EPSON FLATBED Scanner, EPSON, J371A, IT20190122 / VCHY042362</t>
+  </si>
+  <si>
+    <t>EPSON flatbed/feeder scanner, Epson, DS-1630, IT20190308</t>
+  </si>
+  <si>
+    <t>Extension Cord, , , IT2019154</t>
+  </si>
+  <si>
+    <t>Extension Cord, , , IT2019028</t>
+  </si>
+  <si>
+    <t>Extension Cord, , , IT2019183</t>
+  </si>
+  <si>
+    <t>Graphics Card, Zotac, , N191200033748</t>
+  </si>
+  <si>
+    <t>HDMI, , , IT20190085</t>
+  </si>
+  <si>
+    <t>HDMI, , , IT20190180</t>
+  </si>
+  <si>
+    <t>HDMI, , , IT20190300</t>
+  </si>
+  <si>
+    <t>headphones, INFINI, , IT20190036</t>
+  </si>
+  <si>
+    <t>Headset, Goodne, GS-136, IT2019271</t>
+  </si>
+  <si>
+    <t>Intel Core i3-4160 @3.60GHz, 4GB RAM,, Orion, , IT20190202</t>
+  </si>
+  <si>
+    <t>Intel Core i3-4170 CPU @3.70GHz, 4GB RAM, 500GB HDD, , , ITBCD1033</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4460 CPU @ 3.20GHz, 8GB RAM, 1TB HDD, Orion, , IT20190256</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4460 CPU @ 3.20GHz, 8GB RAM, 1TB HDD, Orion, , IT20190340</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7400 CPU @ 3.00Ghz, 4GB RAM, 500HDD, Fortress, , IT20190068</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7400 CPU @3.00GHz, 4GB RAM, 500GB HDD, Fortress, , IT20190358</t>
+  </si>
+  <si>
+    <t>Keyboard, A4Tech, KRS-83, IT20190098</t>
+  </si>
+  <si>
+    <t>Keyboard, Rise, , ZH2013100005973</t>
+  </si>
+  <si>
+    <t>Keyboard, Cliptech, RZKZ47, IT20190009</t>
+  </si>
+  <si>
+    <t>Keyboard, A4Tech, KRS-85, PE1804019190</t>
+  </si>
+  <si>
+    <t>Keyboard, Xtyle, , ZH2014110370</t>
+  </si>
+  <si>
+    <t>Keyboard, A4Tech, KRS-83, IT20190053</t>
+  </si>
+  <si>
+    <t>Keyboard, Delux, K6002, K60029D007924</t>
+  </si>
+  <si>
+    <t>Keyboard, Delux, K6010, K6105J005649</t>
+  </si>
+  <si>
+    <t>Keyboard, Logitech, K120, 1540SC50ADDB</t>
+  </si>
+  <si>
+    <t>Keyboard, A4 Tech, KR-85, IT2019375</t>
+  </si>
+  <si>
+    <t>Keyboard, Delux, K6010, ITBCD1113</t>
+  </si>
+  <si>
+    <t>Keyboard, A4tech, KRS-83, IT20190320</t>
+  </si>
+  <si>
+    <t>Laptop 12.5 inches Intel Core i5-4300U, 4GB RAM, 64-bit OS , Toshiba, dynabook R634/K, IT20190173</t>
+  </si>
+  <si>
+    <t>Laptop 13.5 inches Intel Core i5-7200U, 4GB RAM, 64-bit OS , Acer, Aspire E5-476G, NXGVSSP001820050D57600</t>
+  </si>
+  <si>
+    <t>Laptop 14in, INTEL® CORE™ i5-4210U CPU @1.70ghz 2.40ghz,  4GB RAM, 64-bit OS, ASUS, R455L, IT20190045</t>
+  </si>
+  <si>
+    <t>Laptop 14inches, Intel Core i5-5200U CPU @ 2.20GHz, 4GB RAM, 1TB HDD, Acer, , NXV9USP018602033587600</t>
+  </si>
+  <si>
+    <t>Jonah Faye Benares</t>
+  </si>
+  <si>
+    <t>Laptop AMD A9-9425 Radeon R5, 5 Compute cores 2C + 3G 3.10GHz 4GB RAM 64 Bit OS 500GB HDD, Asus, Asus VivoBook X540B, J6N0GR03E693245</t>
+  </si>
+  <si>
+    <t>Laptop Asus 14.0" Intel® Core™ i3 3217U	Processor Windows 8 Intel® HM76/HM70 Express Chipset DDR3 1600 MHz SDRAM, up to 4 G  500 GB Storage, ASUS , X451C Notebook PC, E4N0CX061019148</t>
+  </si>
+  <si>
+    <t>Laptop Battery, , , 646757-001</t>
+  </si>
+  <si>
+    <t>Engineering Dept.</t>
+  </si>
+  <si>
+    <t>Henry Sia</t>
+  </si>
+  <si>
+    <t>Laptop Charger, Hunk Key, 8KA06519533-8J, 1901001751</t>
+  </si>
+  <si>
+    <t>ShoppersGuide</t>
+  </si>
+  <si>
+    <t>Beatrice Faye Lee</t>
+  </si>
+  <si>
+    <t>Laptop Charger, Acer, ADP-65VH D, 6ARW53908NE</t>
+  </si>
+  <si>
+    <t>Laptop Core i7, RAM(4GB), 64 bit, x64 Based  Processor HDD 1TB, ASUS, X510U, J5NDCX11W504217</t>
+  </si>
+  <si>
+    <t>Laptop Core i7-4610M CPU, RAM(8GB), 64 bit,x64 Based Processor, Toshiba, TECRA A50-A Series, PB654MAWGK7AE71</t>
+  </si>
+  <si>
+    <t>Laptop HP 15.6 2.10 GHz Intel Pentium Dual-Core Processor T4300 3GB DDR2 memory 320GB SATA hard drive Microsoft Windows 7 Home Premium Edition 64-bit, HP, G60-535DX, 2CE9478DTJ</t>
+  </si>
+  <si>
+    <t>Laptop Intel Celeron 2955U 4GB RAM 64-bit OS, Acer, Acer Aspire E1-432, 34201363766</t>
+  </si>
+  <si>
+    <t>Ma. Milagros Arana</t>
+  </si>
+  <si>
+    <t>Laptop intel(R) core i5 CPU 2GB 64bit OS, NEC, VY24GD-9, IT20190329</t>
+  </si>
+  <si>
+    <t>Laptop Intel(R) Core(TM) i3-4030U CPU 1.90GHz 4GB RAM 64Bit OS 1TeraHDD, Acer, E5-471 Series, NXMN6SP0012440E8547600</t>
+  </si>
+  <si>
+    <t>Laser Pointer, Acer, , IT20190114</t>
+  </si>
+  <si>
+    <t>LED TV 40', TCL, , IT20190364</t>
+  </si>
+  <si>
+    <t>LED TV 40', TCL, , IT20190206</t>
+  </si>
+  <si>
+    <t>LED TV 40', TCL, , IT20190379</t>
+  </si>
+  <si>
+    <t>LED TV 40', TCL, , IT20190298</t>
+  </si>
+  <si>
+    <t>LED TV 40', TCL, , IT20190315</t>
+  </si>
+  <si>
+    <t>Monitor, AOC, , JBUEC1A002381</t>
+  </si>
+  <si>
+    <t>Monitor, AOC, , KPPH51A005310</t>
+  </si>
+  <si>
+    <t>Monitor 13 inches, LG, , 5051INUB23174</t>
+  </si>
+  <si>
+    <t>Monitor 14 inches, AOC, E1670Swu/WM, APAH41A002236</t>
+  </si>
+  <si>
+    <t>Monitor 15.5 inch, AOC, 1E660SW, ERUD81A001736</t>
+  </si>
+  <si>
+    <t>Monitor 15.5 inches, AOC, E1670Swu, HHKE71A000908</t>
+  </si>
+  <si>
+    <t>Monitor 15.5 inches, Acer, P166HQL, 42600622085</t>
+  </si>
+  <si>
+    <t>Monitor 15.5 inches, AOC, E1670Swu, GCRF21A002880</t>
+  </si>
+  <si>
+    <t>Monitor 15.6 inches, , E1670SW, AQLK51A005927</t>
+  </si>
+  <si>
+    <t>Monitor 16', AOC, , IT20190335</t>
+  </si>
+  <si>
+    <t>Monitor 16in, Philips, , IT20190067</t>
+  </si>
+  <si>
+    <t>Monitor 16in, AOC, , IT20190016</t>
+  </si>
+  <si>
+    <t>Monitor 18.5 inches, AOC, E970Swu, HNDGIIA001432</t>
+  </si>
+  <si>
+    <t>Monitor 18.5 inches, Acer, EB192Q, MMT6MSS0038020017B3E00</t>
+  </si>
+  <si>
+    <t>Monitor 18.5/19 Inches, Viewsonic, VS16216, UEM191124906</t>
+  </si>
+  <si>
+    <t>Monitor 18.5in, Acer, V196HQL, IT20190267 / MMLY0SS00343405DA08502</t>
+  </si>
+  <si>
+    <t>Monitor 18.5in, AOC, , IT20190063</t>
+  </si>
+  <si>
+    <t>Monitor 18.5in, AOC, , IT20190008</t>
+  </si>
+  <si>
+    <t>Monitor 19 inch LED Backlit Display 47cm, Viewsonic, VS16216, UEM185122344</t>
+  </si>
+  <si>
+    <t>Monitor 19 inches, Viewsonic, VS16216, UEM185121867</t>
+  </si>
+  <si>
+    <t>Monitor 19 inches, AOC, 195LM00003, KPPH51A005906</t>
+  </si>
+  <si>
+    <t>Monitor 19in, Acer, EB192Q, IT20190387 / MMT6MSS003802001693E00</t>
+  </si>
+  <si>
+    <t>Monitor 19in, AOC, , IT20190174</t>
+  </si>
+  <si>
+    <t>Monitor 21 inches, Samsung, S22E310H4, ZZEGH4LG700B42A</t>
+  </si>
+  <si>
+    <t>Monitor 21 inches, Samsung, S24E310, ZZD6H4LG801197P</t>
+  </si>
+  <si>
+    <t>Monitor 24 inches, Samsung, S24E310, ZZDGH4LG801159E</t>
+  </si>
+  <si>
+    <t>Monitor, 18.5 inches, AOC, E970Sw, ANII31AO23736</t>
+  </si>
+  <si>
+    <t>Monitor, 18.5 inches, HKC, 1876B, HNWX8101532300588</t>
+  </si>
+  <si>
+    <t>Monitor, 18.5 inches, AOC, , KPPI11A017809</t>
+  </si>
+  <si>
+    <t>Monitor, 19 inches, AOC, E9705w, KCYG61A002798</t>
+  </si>
+  <si>
+    <t>Monitor, 21 Inches, Samsung, S22E390H, OLU4HTKG300232D</t>
+  </si>
+  <si>
+    <t>Mouse, A4Tech, OP-720, IT20190395</t>
+  </si>
+  <si>
+    <t>Mouse, Optical, , IT20190019</t>
+  </si>
+  <si>
+    <t>Mouse, Delux, M136, IT20190245</t>
+  </si>
+  <si>
+    <t>Mouse, A4Tech, OP-62D, IT20190090</t>
+  </si>
+  <si>
+    <t>Mouse, A4Tech, OP-720, PH1808038722</t>
+  </si>
+  <si>
+    <t>Mouse, A4Tech, OP-720, IT20190373</t>
+  </si>
+  <si>
+    <t>Mouse, Delux, M136, IT20190265</t>
+  </si>
+  <si>
+    <t>Mouse, Logitech, M-U0026, IT20190259</t>
+  </si>
+  <si>
+    <t>Mouse, Xtyle, , ITBCD1110</t>
+  </si>
+  <si>
+    <t>mouse, A4Tech, OP-720, IT20190047</t>
+  </si>
+  <si>
+    <t>Mouse Wireless, , RZS842, 18104946</t>
+  </si>
+  <si>
+    <t>Mouse Wireless Optical, Manhattan, 179416, IT20190164</t>
+  </si>
+  <si>
+    <t>Mouse(Red), JIZZ, S302V, DBS302V1411005652</t>
+  </si>
+  <si>
+    <t>Odroid, 32GB(SD CARD), ODROID, , 0X23BG3380</t>
+  </si>
+  <si>
+    <t>Orange Speaker, Remark, , IT20190134</t>
+  </si>
+  <si>
+    <t>Power Cord, , , IT20190352</t>
+  </si>
+  <si>
+    <t>Printer, EPSON, L365, VHAK028956</t>
+  </si>
+  <si>
+    <t>Printer, EPSON, L355, SMVK006903</t>
+  </si>
+  <si>
+    <t>Printer, Epson, L120, TP3K707273</t>
+  </si>
+  <si>
+    <t>Printer, Epson, L355, IT20190304</t>
+  </si>
+  <si>
+    <t>Remote Control for Projector, , A-16041, VZ.JBU.00.001</t>
+  </si>
+  <si>
+    <t>Router, D-Link, DES-1008A, R3UO1F1019427</t>
+  </si>
+  <si>
+    <t>Router, TP-LINK, Archer C2, 2177152001525</t>
+  </si>
+  <si>
+    <t>Board Room</t>
+  </si>
+  <si>
+    <t>Router, MyDlink, , R3FJ3F2004803</t>
+  </si>
+  <si>
+    <t>Router, PLDT FIBER, , 252001004683</t>
+  </si>
+  <si>
+    <t>Router, LINKSYS, , 10A30C67406100</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A, Samsung, Samsung SM-T515, RR2M900A04P</t>
+  </si>
+  <si>
+    <t>Speaker, LOYFUN, , IT20190117</t>
+  </si>
+  <si>
+    <t>Speaker, SoniEar / Quatro 2, , 8886411908010</t>
+  </si>
+  <si>
+    <t>Speaker, Devant, SB--50, SB50K021901421</t>
+  </si>
+  <si>
+    <t>Speaker, Kisonli, , IT20190175</t>
+  </si>
+  <si>
+    <t>Speaker, Kisonli, , IT20190359</t>
+  </si>
+  <si>
+    <t>Speaker, Dausen, , IT20190062</t>
+  </si>
+  <si>
+    <t>Speaker, LOYFUN, , IT20190106</t>
+  </si>
+  <si>
+    <t>Admin Department</t>
+  </si>
+  <si>
+    <t>Speaker, Kisonli, , IT20190064</t>
+  </si>
+  <si>
+    <t>Speaker, Xtyle, , IT20190309</t>
+  </si>
+  <si>
+    <t>Speaker, Kisonli, , IT20190021</t>
+  </si>
+  <si>
+    <t>Speaker, Kisonli, , IT20190392</t>
+  </si>
+  <si>
+    <t>Speaker, Tsunami, , XX-205A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker, Tsunami, XX-205B, </t>
+  </si>
+  <si>
+    <t>speaker, Xtyle, , IT20190253</t>
+  </si>
+  <si>
+    <t>Speaker, Kisonli, , IT20190380</t>
+  </si>
+  <si>
+    <t>Speaker's  Remote Control , Devant, , IT20190317</t>
+  </si>
+  <si>
+    <t>Switching Adapter , , RX-SP5012-4, IT20190039</t>
+  </si>
+  <si>
+    <t>Switching Adaptor for Globe Router, , , 2102220121ARJ3130485</t>
+  </si>
+  <si>
+    <t>TV 65 inches, Devant, , 65UHD200A031700267</t>
+  </si>
+  <si>
+    <t>UPS, APC, Back-UPS 650, 9B1934A18271</t>
+  </si>
+  <si>
+    <t>UPS, APC, Back-UPS 650, BX650L1-MS / 9B1934A18260</t>
+  </si>
+  <si>
+    <t>UPS, Fortress, , IT20190361</t>
+  </si>
+  <si>
+    <t>UPS, APC, , 9B1549A06964</t>
+  </si>
+  <si>
+    <t>UPS, APC, , IT20190211</t>
+  </si>
+  <si>
+    <t>UPS, iLogic, Blazer 720VA, IT20190374</t>
+  </si>
+  <si>
+    <t>UPS, APC, , IT20190250</t>
+  </si>
+  <si>
+    <t>UPS, iLogic, , IT20190107</t>
+  </si>
+  <si>
+    <t>UPS, iLogic, , IT-20190234</t>
+  </si>
+  <si>
+    <t>UPS, APC, , IT20190132</t>
+  </si>
+  <si>
+    <t>UPS, APC, , IT20190305</t>
+  </si>
+  <si>
+    <t>UPS - 625V, APC, , IT20190248</t>
+  </si>
+  <si>
+    <t>UPS - 625V, APC, , IT20190368</t>
+  </si>
+  <si>
+    <t>UPS - 650VA, SECURE, , IT20190350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS 1200, Prolink, PRO1201SFC, </t>
+  </si>
+  <si>
+    <t>UPS 600VA/360watts, Emerson, PSA-60BX, 241610328295BX</t>
+  </si>
+  <si>
+    <t>UPS 650, APC, , IT20190391</t>
+  </si>
+  <si>
+    <t>UPS 650VA, , , 3100267368A9779500121</t>
+  </si>
+  <si>
+    <t>UPS 650VA, SECURE, , 2015050101350</t>
+  </si>
+  <si>
+    <t>UPS 650VA, APC, , YY19061315188</t>
+  </si>
+  <si>
+    <t>UPS 650VA, APC 650, , IT20190013</t>
+  </si>
+  <si>
+    <t>UPS 650VA, APC, Back UPS 650, 9B1646A05761</t>
+  </si>
+  <si>
+    <t>UPS 720VA, iLogic, , IT20190194</t>
+  </si>
+  <si>
+    <t>UPS 720VA, ILogic, Blazer 720VA, 231701504407</t>
+  </si>
+  <si>
+    <t>UPS 720VA, iLogic, Blazer 720VA, 231803501664</t>
+  </si>
+  <si>
+    <t>UPS 720VA, APC, Back UPS 650, 231803501664</t>
+  </si>
+  <si>
+    <t>UPS 720VA, iLogic, Blazer 720VA, 231710508889</t>
+  </si>
+  <si>
+    <t>UPS Sealed Lead Acid Battery (12V4.5AH), Gaston, , 19ER5193</t>
+  </si>
+  <si>
+    <t>UPS Sealed Lead Acid Battery (12V4.5AH), , , 19ER5193</t>
+  </si>
+  <si>
+    <t>UPS-650V, APC, BX65OLI-MS, 9B1805A02119</t>
+  </si>
+  <si>
+    <t>UPS-650V, APC, , 9B1817A29252</t>
+  </si>
+  <si>
+    <t>USB 16 GB, SanDisk, , IT20190210</t>
+  </si>
+  <si>
+    <t>USB 16GB, SanDisk, Cruzer Blade, TAD-SDCZ50</t>
+  </si>
+  <si>
+    <t>USB 16GB, SanDisk, , IT20190140</t>
+  </si>
+  <si>
+    <t>USB 16GB, , , IT20190037</t>
+  </si>
+  <si>
+    <t>USB cord, Samsung, , IT20190015</t>
+  </si>
+  <si>
+    <t>Usb Cord, Samsung, , FFE- COMP-BCD-1309</t>
+  </si>
+  <si>
+    <t>USB to LAN Adapter, , , QTS1081B</t>
+  </si>
+  <si>
+    <t>Jordan Yap</t>
+  </si>
+  <si>
+    <t>USB Wifi Adapter, TP Link, Archer T2UH AC600, 2192079004295</t>
+  </si>
+  <si>
+    <t>VGA, , , IT20190204</t>
+  </si>
+  <si>
+    <t>VGA Cable, , , IT20190191</t>
+  </si>
+  <si>
+    <t>VGA Cable Male to Male (1.5 meter), , , IT20190268</t>
+  </si>
+  <si>
+    <t>VGA dock, NComputing, , IT20190024</t>
+  </si>
+  <si>
+    <t>VGA dock, NComputing, , IT20190378</t>
+  </si>
+  <si>
+    <t>WebCam, A4Tech, PK-910H, IT20190087</t>
+  </si>
+  <si>
+    <t>White Speaker, Dausen, , IT20190126</t>
+  </si>
+  <si>
+    <t>Wifi Adapter , TP-Link, , IT20190324</t>
+  </si>
+  <si>
+    <t>Wifi Adapter, TP-Link, , IT20190042</t>
+  </si>
+  <si>
+    <t>WiFi Adapter, TP-Link, , IT20190338</t>
+  </si>
+  <si>
+    <t>Wifi Adapter, TP-Link, Archer T24, IT2019001</t>
+  </si>
+  <si>
+    <t>WiFi Adapter, TP-Link, , IT20190027</t>
+  </si>
+  <si>
+    <t>WiFi Adapter, CD-R King, , IT20190069</t>
+  </si>
+  <si>
+    <t>WiFi Adapter, CD-R King, , IT20190260</t>
+  </si>
+  <si>
+    <t>WIFI Adapter, TP-Link, TL-WN727N, 217B148009878</t>
+  </si>
+  <si>
+    <t>WiFi Adapter, Tenda, W322U, C83A35C39342</t>
+  </si>
+  <si>
+    <t>WIFI Adapter, D-Link, DWA-123, QS3J1E6006617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIFI Adapter, TP-Link, , </t>
+  </si>
+  <si>
+    <t>Wifi adapter, LB-Link, , IT20190326</t>
+  </si>
+  <si>
+    <t>Wifi Adaptor, , , IT20190195</t>
+  </si>
+  <si>
+    <t>Wifi Adaptor, , , IT20190224</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Delux, K6010, IT20190344</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, , , IT20190207</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Delux, K6002, K60029D004410</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-83, PH1707048739</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Delux, K6002, K60029D005137</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, HP, , IT20190046</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Xtyle, , IT20190141</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-83, PH1709032216</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-85, PE1711040197</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Delux, K6010, IT20190377</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-85, PE1706021578</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-85, IT20190314</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Cliptec, RZK247, IT20190009</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, , IT20190124</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-85, PE1804019192</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4tech, KRS-85, IT20190252</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4tech, KRS-83, IT20190153</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-83, IT20190127</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-83, PH1707048729</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4TECH, KRS-83, IT20190238 / PH1801038642</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-83, IT2019065</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Delux, K6010, IT20190285 / OSS-TMARK516</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4tech, , IT20190167</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Xtyle, , IT20190146</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, A4Tech, KRS-85, IT20190119</t>
+  </si>
+  <si>
+    <t>Wired Keyboard, Deluxe, , IT20190061</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Delux, , DNR-TMARK1215T</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4tech, OP-720, PH1707048733</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Delux, M136, M1368K023773</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Delux, M136, M1368K011388</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, PH1707048825</t>
+  </si>
+  <si>
+    <t>Wired Mouse, XEIYO, C001, DBC001U1407002947</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Delux, M136, M1369D004165</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Cliptee, , 150502841</t>
+  </si>
+  <si>
+    <t>Wired mouse, A4 Tech, OP-720, IT2019321</t>
+  </si>
+  <si>
+    <t>Wired Mouse, , , IT20190</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, IT20190273</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Xtyle, Xtyle Optical Mouse, IT20190381</t>
+  </si>
+  <si>
+    <t>Contracts &amp; Compliance</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Delux, M136, IT20190332</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, PE1711040378</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Delux, , DSS-TMARKS16</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, PE1706017064</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, IT20190160</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, , PH1703OP62003629</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, IT20190397</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, PE1804020129</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Xtyle, , GHC1411300372</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Delux, M136, IT20190125</t>
+  </si>
+  <si>
+    <t>Wired Mouse , A4tech, OP-720, IT20190184</t>
+  </si>
+  <si>
+    <t>Wired Mouse , A4tech, OP-720, IT20190145 / PE17060170176</t>
+  </si>
+  <si>
+    <t>Wired Mouse , Logitech, b100, IT20190390</t>
+  </si>
+  <si>
+    <t>Wired Mouse , A4Tech, OP-720, PH1708049555</t>
+  </si>
+  <si>
+    <t>Wired Mouse , Optical, , 1312300160</t>
+  </si>
+  <si>
+    <t>Wired Mouse , A4TECH, OP-720, IT20190271 / PH1707048643</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, IT2019030</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4tech, OP-720, IT20190328</t>
+  </si>
+  <si>
+    <t>Wired Mouse , A4tech, , IT20190004</t>
+  </si>
+  <si>
+    <t>Wired Mouse , A4Tech, , IT20190282</t>
+  </si>
+  <si>
+    <t>Wired Mouse, A4Tech, OP-720, PH1801038801</t>
+  </si>
+  <si>
+    <t>Wired Mouse, Deluxe, , IT20190325</t>
+  </si>
+  <si>
+    <t>Wired PS2 Mouse, A4Tech, , IT20190160</t>
+  </si>
+  <si>
+    <t>Wireless Keyboard, Silvertech, SCKM-E111, IT20190150</t>
+  </si>
+  <si>
+    <t>Wireless Keyboard, Genius, Slim Star 8006/K, IT20190279 / XP18T9608498</t>
+  </si>
+  <si>
+    <t>Wireless Mouse, Cliptec, RZS842, 18104946</t>
+  </si>
+  <si>
+    <t>Wireless Mouse, Silvertech, SCKM-E111, IT20190297</t>
+  </si>
+  <si>
+    <t>Wireless Mouse, Genius, NX-7020, IT20190341 / XP18T9608498</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>Wireless Mouse with adapter, Delux, M136, M136GX1711000668</t>
   </si>
 </sst>
 </file>
@@ -439,7 +1684,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,13 +1692,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="215.804443" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="39.990234" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="36.419678" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -510,10 +1755,8158 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7250</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>240</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>17910</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2">
+        <v>3350</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B170" s="2">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B179" s="2">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="1"/>
+      <c r="G185" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B187" s="2">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B204" s="2">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B208" s="2">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B214" s="2">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="1"/>
+      <c r="G214" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B215" s="2">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B216" s="2">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B219" s="2">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B224" s="2">
+        <v>1</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" s="1"/>
+      <c r="G224" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B227" s="2">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B229" s="2">
+        <v>1</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B233" s="2">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2">
+        <v>0</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" s="1"/>
+      <c r="G235" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B237" s="2">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" s="1"/>
+      <c r="G239" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" s="1"/>
+      <c r="G241" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B242" s="2">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" s="1"/>
+      <c r="G242" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B243" s="2">
+        <v>1</v>
+      </c>
+      <c r="C243" s="2">
+        <v>2790</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2">
+        <v>0</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B247" s="2">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B248" s="2">
+        <v>1</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" s="1"/>
+      <c r="G248" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" s="1"/>
+      <c r="G249" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2">
+        <v>0</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2">
+        <v>0</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" s="1"/>
+      <c r="G253" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2">
+        <v>0</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B255" s="2">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="1"/>
+      <c r="G255" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" s="1"/>
+      <c r="G257" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B258" s="2">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" s="1"/>
+      <c r="G258" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F259" s="1"/>
+      <c r="G259" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B260" s="2">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2">
+        <v>0</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260" s="1"/>
+      <c r="G260" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B261" s="2">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2">
+        <v>295</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="1"/>
+      <c r="G261" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B262" s="2">
+        <v>1</v>
+      </c>
+      <c r="C262" s="2">
+        <v>820</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B263" s="2">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" s="1"/>
+      <c r="G263" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B264" s="2">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B265" s="2">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B266" s="2">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="1"/>
+      <c r="G266" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B267" s="2">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2">
+        <v>0</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" s="1"/>
+      <c r="G267" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" s="2">
+        <v>1</v>
+      </c>
+      <c r="C268" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B269" s="2">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1</v>
+      </c>
+      <c r="C270" s="2">
+        <v>0</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
+      <c r="C272" s="2">
+        <v>0</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B276" s="2">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B279" s="2">
+        <v>1</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B280" s="2">
+        <v>1</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
+      <c r="C282" s="2">
+        <v>0</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B283" s="2">
+        <v>1</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B284" s="2">
+        <v>1</v>
+      </c>
+      <c r="C284" s="2">
+        <v>0</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B285" s="2">
+        <v>1</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B287" s="2">
+        <v>1</v>
+      </c>
+      <c r="C287" s="2">
+        <v>0</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B288" s="2">
+        <v>1</v>
+      </c>
+      <c r="C288" s="2">
+        <v>0</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B289" s="2">
+        <v>1</v>
+      </c>
+      <c r="C289" s="2">
+        <v>0</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B290" s="2">
+        <v>1</v>
+      </c>
+      <c r="C290" s="2">
+        <v>0</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B291" s="2">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2">
+        <v>0</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B292" s="2">
+        <v>1</v>
+      </c>
+      <c r="C292" s="2">
+        <v>0</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B293" s="2">
+        <v>1</v>
+      </c>
+      <c r="C293" s="2">
+        <v>0</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293" s="1"/>
+      <c r="G293" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1</v>
+      </c>
+      <c r="C294" s="2">
+        <v>0</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B295" s="2">
+        <v>1</v>
+      </c>
+      <c r="C295" s="2">
+        <v>0</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B296" s="2">
+        <v>1</v>
+      </c>
+      <c r="C296" s="2">
+        <v>0</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B297" s="2">
+        <v>1</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B299" s="2">
+        <v>1</v>
+      </c>
+      <c r="C299" s="2">
+        <v>0</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B300" s="2">
+        <v>1</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B301" s="2">
+        <v>1</v>
+      </c>
+      <c r="C301" s="2">
+        <v>0</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B302" s="2">
+        <v>1</v>
+      </c>
+      <c r="C302" s="2">
+        <v>0</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B303" s="2">
+        <v>1</v>
+      </c>
+      <c r="C303" s="2">
+        <v>0</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B304" s="2">
+        <v>1</v>
+      </c>
+      <c r="C304" s="2">
+        <v>0</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B305" s="2">
+        <v>1</v>
+      </c>
+      <c r="C305" s="2">
+        <v>0</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B306" s="2">
+        <v>1</v>
+      </c>
+      <c r="C306" s="2">
+        <v>0</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B307" s="2">
+        <v>1</v>
+      </c>
+      <c r="C307" s="2">
+        <v>0</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B308" s="2">
+        <v>1</v>
+      </c>
+      <c r="C308" s="2">
+        <v>0</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B309" s="2">
+        <v>1</v>
+      </c>
+      <c r="C309" s="2">
+        <v>0</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B310" s="2">
+        <v>1</v>
+      </c>
+      <c r="C310" s="2">
+        <v>0</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" s="1"/>
+      <c r="G310" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B311" s="2">
+        <v>1</v>
+      </c>
+      <c r="C311" s="2">
+        <v>0</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B312" s="2">
+        <v>1</v>
+      </c>
+      <c r="C312" s="2">
+        <v>0</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B313" s="2">
+        <v>1</v>
+      </c>
+      <c r="C313" s="2">
+        <v>0</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" s="1"/>
+      <c r="G313" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B314" s="2">
+        <v>1</v>
+      </c>
+      <c r="C314" s="2">
+        <v>0</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B315" s="2">
+        <v>1</v>
+      </c>
+      <c r="C315" s="2">
+        <v>0</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B316" s="2">
+        <v>1</v>
+      </c>
+      <c r="C316" s="2">
+        <v>0</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" s="1"/>
+      <c r="G316" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B317" s="2">
+        <v>1</v>
+      </c>
+      <c r="C317" s="2">
+        <v>0</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B318" s="2">
+        <v>1</v>
+      </c>
+      <c r="C318" s="2">
+        <v>0</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1</v>
+      </c>
+      <c r="C319" s="2">
+        <v>0</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B320" s="2">
+        <v>1</v>
+      </c>
+      <c r="C320" s="2">
+        <v>0</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1</v>
+      </c>
+      <c r="C321" s="2">
+        <v>0</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1</v>
+      </c>
+      <c r="C322" s="2">
+        <v>0</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B323" s="2">
+        <v>1</v>
+      </c>
+      <c r="C323" s="2">
+        <v>0</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" s="1"/>
+      <c r="G323" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1</v>
+      </c>
+      <c r="C324" s="2">
+        <v>0</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" s="1"/>
+      <c r="G324" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2">
+        <v>0</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2">
+        <v>0</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B327" s="2">
+        <v>1</v>
+      </c>
+      <c r="C327" s="2">
+        <v>0</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327" s="1"/>
+      <c r="G327" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+      <c r="C328" s="2">
+        <v>0</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="1"/>
+      <c r="G328" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B329" s="2">
+        <v>1</v>
+      </c>
+      <c r="C329" s="2">
+        <v>0</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B330" s="2">
+        <v>1</v>
+      </c>
+      <c r="C330" s="2">
+        <v>0</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B331" s="2">
+        <v>1</v>
+      </c>
+      <c r="C331" s="2">
+        <v>0</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B332" s="2">
+        <v>1</v>
+      </c>
+      <c r="C332" s="2">
+        <v>0</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B333" s="2">
+        <v>1</v>
+      </c>
+      <c r="C333" s="2">
+        <v>0</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B334" s="2">
+        <v>1</v>
+      </c>
+      <c r="C334" s="2">
+        <v>0</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B335" s="2">
+        <v>1</v>
+      </c>
+      <c r="C335" s="2">
+        <v>0</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B336" s="2">
+        <v>1</v>
+      </c>
+      <c r="C336" s="2">
+        <v>0</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B337" s="2">
+        <v>1</v>
+      </c>
+      <c r="C337" s="2">
+        <v>0</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B338" s="2">
+        <v>1</v>
+      </c>
+      <c r="C338" s="2">
+        <v>0</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B339" s="2">
+        <v>1</v>
+      </c>
+      <c r="C339" s="2">
+        <v>0</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B340" s="2">
+        <v>1</v>
+      </c>
+      <c r="C340" s="2">
+        <v>0</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1</v>
+      </c>
+      <c r="C341" s="2">
+        <v>0</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B342" s="2">
+        <v>1</v>
+      </c>
+      <c r="C342" s="2">
+        <v>0</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B343" s="2">
+        <v>1</v>
+      </c>
+      <c r="C343" s="2">
+        <v>0</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B344" s="2">
+        <v>1</v>
+      </c>
+      <c r="C344" s="2">
+        <v>0</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" s="1"/>
+      <c r="G344" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B345" s="2">
+        <v>1</v>
+      </c>
+      <c r="C345" s="2">
+        <v>0</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F345" s="1"/>
+      <c r="G345" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+      <c r="C346" s="2">
+        <v>0</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B347" s="2">
+        <v>1</v>
+      </c>
+      <c r="C347" s="2">
+        <v>0</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B348" s="2">
+        <v>1</v>
+      </c>
+      <c r="C348" s="2">
+        <v>0</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B349" s="2">
+        <v>1</v>
+      </c>
+      <c r="C349" s="2">
+        <v>0</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B350" s="2">
+        <v>1</v>
+      </c>
+      <c r="C350" s="2">
+        <v>0</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B351" s="2">
+        <v>1</v>
+      </c>
+      <c r="C351" s="2">
+        <v>0</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <protectedRanges>
     <protectedRange name="p72c8ec415e21b0ae7640bf770ec725aa" sqref="A3:G3" password="C724"/>
+    <protectedRange name="p6804d5b44d5f0d4113024046398c096e" sqref="A4:G4" password="C724"/>
+    <protectedRange name="pc8420570319781b040e4fc77750462f7" sqref="A5:G5" password="C724"/>
+    <protectedRange name="p8d708506dfc8ef2b51c8cf4c5cc3f33e" sqref="A6:G6" password="C724"/>
+    <protectedRange name="p7e546d096378a890fc57fdb0eb79006b" sqref="A7:G7" password="C724"/>
+    <protectedRange name="p41ea1506cf0897ae247c4f5c88018854" sqref="A8:G8" password="C724"/>
+    <protectedRange name="pb50b084456ae1386075f58d9fe331648" sqref="A9:G9" password="C724"/>
+    <protectedRange name="p104b3f0827a65187bcaf8c19e19d8450" sqref="A10:G10" password="C724"/>
+    <protectedRange name="pbbed5f6e5fdf4ff6b71bd6209e3a80cc" sqref="A11:G11" password="C724"/>
+    <protectedRange name="p4dd2f9099d40a8de727a847709c3a2b4" sqref="A12:G12" password="C724"/>
+    <protectedRange name="p7da544e962e0ee3a2fcd81e0a9e771e0" sqref="A13:G13" password="C724"/>
+    <protectedRange name="pc577b7b9f5d5159c142e2d445df6a74a" sqref="A14:G14" password="C724"/>
+    <protectedRange name="pb8dee40cb6f5571be44975e313971df4" sqref="A15:G15" password="C724"/>
+    <protectedRange name="p43cf4c3c8a04cdc058a77c3a15213fee" sqref="A16:G16" password="C724"/>
+    <protectedRange name="p832d2bc153cb07dfaec587898310709c" sqref="A17:G17" password="C724"/>
+    <protectedRange name="p2cbbc14694c0b98ffaf3f2cc7abc658c" sqref="A18:G18" password="C724"/>
+    <protectedRange name="p2f48cd0ca5ffd5a0fa0be1975813992d" sqref="A19:G19" password="C724"/>
+    <protectedRange name="p20d4e4b61814e5eb5f7722f84e2e04d2" sqref="A20:G20" password="C724"/>
+    <protectedRange name="pe39e0d9c90d9d88b89f50c6abccbdb34" sqref="A21:G21" password="C724"/>
+    <protectedRange name="p9153a6c5d9d953d03ee381b4e3afbc1e" sqref="A22:G22" password="C724"/>
+    <protectedRange name="pe02b4aaf971a0915f52b993459cda930" sqref="A23:G23" password="C724"/>
+    <protectedRange name="p44bcc68cd92264c5cf9ccf66c8d7923c" sqref="A24:G24" password="C724"/>
+    <protectedRange name="p2b9ec0035435ae983b973d8f60faf410" sqref="A25:G25" password="C724"/>
+    <protectedRange name="p9d01e7e1a86625afbcd4f1f7fc466876" sqref="A26:G26" password="C724"/>
+    <protectedRange name="pc0a5229505acc1251163bf82e772a27b" sqref="A27:G27" password="C724"/>
+    <protectedRange name="p82f232995d851204b398b8b49cc6c71a" sqref="A28:G28" password="C724"/>
+    <protectedRange name="pc4e3b857c1b2ad007bcad40ade53232b" sqref="A29:G29" password="C724"/>
+    <protectedRange name="pf0239781dfaa48d6b56d0d0c90cd0010" sqref="A30:G30" password="C724"/>
+    <protectedRange name="p19fc6fa4c393980399a0decf3f94f71a" sqref="A31:G31" password="C724"/>
+    <protectedRange name="pc2f500d56935ed40bf8a9ece94147f94" sqref="A32:G32" password="C724"/>
+    <protectedRange name="pa29140a7da6d93b7f44fcebea9fa5670" sqref="A33:G33" password="C724"/>
+    <protectedRange name="p07a98dc59eb0ab949c9fe701305aa92d" sqref="A34:G34" password="C724"/>
+    <protectedRange name="pca8c6d9496ef97c4f58990cec98e2251" sqref="A35:G35" password="C724"/>
+    <protectedRange name="p0b26fe1c4aa5a6fead39196076fd8c38" sqref="A36:G36" password="C724"/>
+    <protectedRange name="pbc88f3bcd92f0f1eedc955ed158f9cab" sqref="A37:G37" password="C724"/>
+    <protectedRange name="p4beab8d2b236d2aa13cd88032e2442b7" sqref="A38:G38" password="C724"/>
+    <protectedRange name="p501b9902018ccce9de37fbe4d2d2b3f8" sqref="A39:G39" password="C724"/>
+    <protectedRange name="pb4617b81310b8d2cc8285e0250783212" sqref="A40:G40" password="C724"/>
+    <protectedRange name="p08cffd99566edba56eab994b373a10c7" sqref="A41:G41" password="C724"/>
+    <protectedRange name="p554d9ae80a0cf25e5b9e2e175f210733" sqref="A42:G42" password="C724"/>
+    <protectedRange name="p557ff6a49911efc20fa3afc4d0eaffe8" sqref="A43:G43" password="C724"/>
+    <protectedRange name="p0b75253a4094a686ba119da1bcff2fe8" sqref="A44:G44" password="C724"/>
+    <protectedRange name="p4a7f631ea1db0a47fd0a176745fd49ab" sqref="A45:G45" password="C724"/>
+    <protectedRange name="p938f2b0abd0a776e0692d288b411cd41" sqref="A46:G46" password="C724"/>
+    <protectedRange name="p0317472a5dfbb5e140a3f09700835134" sqref="A47:G47" password="C724"/>
+    <protectedRange name="pe7254dcbcfd24b092785984c411daca9" sqref="A48:G48" password="C724"/>
+    <protectedRange name="p7f66a2beb6664f456589caf0574bef7c" sqref="A49:G49" password="C724"/>
+    <protectedRange name="p9bfd594597421ce34a8152119c193435" sqref="A50:G50" password="C724"/>
+    <protectedRange name="p0b3a07ef75132c255ed7d8f405e84e48" sqref="A51:G51" password="C724"/>
+    <protectedRange name="p8418c6e3e34219e76598de5429842f77" sqref="A52:G52" password="C724"/>
+    <protectedRange name="p6b70c8499db13259e4eb159ec3cfebee" sqref="A53:G53" password="C724"/>
+    <protectedRange name="pe8d703020ac66c210fd13e02b5485283" sqref="A54:G54" password="C724"/>
+    <protectedRange name="p9f2ca51876423baf1ec7711ba45f934c" sqref="A55:G55" password="C724"/>
+    <protectedRange name="p577067893136c74136c7d4ca3b9a552d" sqref="A56:G56" password="C724"/>
+    <protectedRange name="p72afa98c18b9a6eb7176027bad1a9643" sqref="A57:G57" password="C724"/>
+    <protectedRange name="p2bf4c7de50ed9a6b3820a1759b4ca7d7" sqref="A58:G58" password="C724"/>
+    <protectedRange name="pe5bcf68be7712e11576c68037d71e9d3" sqref="A59:G59" password="C724"/>
+    <protectedRange name="pea30d93aafada351fbd5ec8b0d565986" sqref="A60:G60" password="C724"/>
+    <protectedRange name="pfb9051df821f908b6e2d42cbd0e44532" sqref="A61:G61" password="C724"/>
+    <protectedRange name="p541278ea4a9d32f61f631cdf6c33f6b4" sqref="A62:G62" password="C724"/>
+    <protectedRange name="p8b76505a36c035f28a56c773be38f34b" sqref="A63:G63" password="C724"/>
+    <protectedRange name="p6ef287754612da170a89f396fa1da623" sqref="A64:G64" password="C724"/>
+    <protectedRange name="pde7a50cb6fa9ba274a42040ff6f39f32" sqref="A65:G65" password="C724"/>
+    <protectedRange name="p1a2c042d73bf38f72c891fc6a025ecae" sqref="A66:G66" password="C724"/>
+    <protectedRange name="p7477ffc961d6087488e28d9241631029" sqref="A67:G67" password="C724"/>
+    <protectedRange name="p4f24fbeb1595e95d5724361c99f81672" sqref="A68:G68" password="C724"/>
+    <protectedRange name="p33142677b75b83a62e0d37fe886b3b5a" sqref="A69:G69" password="C724"/>
+    <protectedRange name="pa92af3e3b649b892ffbdb88ccab04f50" sqref="A70:G70" password="C724"/>
+    <protectedRange name="pe8d51a31332189760f43dc64b59cdc8b" sqref="A71:G71" password="C724"/>
+    <protectedRange name="p5886f8f42345a49aeda91eba2e8ad52c" sqref="A72:G72" password="C724"/>
+    <protectedRange name="pea796fe8b8f6043ed6f71d95a6b70a83" sqref="A73:G73" password="C724"/>
+    <protectedRange name="pd3356df078d7075ac316085b1e056289" sqref="A74:G74" password="C724"/>
+    <protectedRange name="p2e5f6cf9a0739f55fdefd4c09ca3ce9c" sqref="A75:G75" password="C724"/>
+    <protectedRange name="p8241b63c7ccca5a12e35bf24c1c6502c" sqref="A76:G76" password="C724"/>
+    <protectedRange name="p97661f2b2e5145bccd7765f95f852751" sqref="A77:G77" password="C724"/>
+    <protectedRange name="p65234f63fca0e1b88a8ac4f3ba224077" sqref="A78:G78" password="C724"/>
+    <protectedRange name="p521c9d558bb43a1c37b5e77decce793d" sqref="A79:G79" password="C724"/>
+    <protectedRange name="p248692307217e945488c73057ba70d5f" sqref="A80:G80" password="C724"/>
+    <protectedRange name="p486d276eb9caeff75f2d8e397a8528d7" sqref="A81:G81" password="C724"/>
+    <protectedRange name="p7dc03b6d864a732ce01edb69350e3032" sqref="A82:G82" password="C724"/>
+    <protectedRange name="p9967ac4e3ff680f1480a375393507695" sqref="A83:G83" password="C724"/>
+    <protectedRange name="pc4e010d8f5ee77dc27376405a859e923" sqref="A84:G84" password="C724"/>
+    <protectedRange name="pcaa1c10ed4091315389d5fdde6b4a333" sqref="A85:G85" password="C724"/>
+    <protectedRange name="p4c9df1eae28dbbf73de1ee35171827fb" sqref="A86:G86" password="C724"/>
+    <protectedRange name="p40c9910a3e1b8c990a763c595665cb3d" sqref="A87:G87" password="C724"/>
+    <protectedRange name="p795223b674410fde03d813a67e4e804f" sqref="A88:G88" password="C724"/>
+    <protectedRange name="pcc1d26e5306e88ea93a20a2816dec5a7" sqref="A89:G89" password="C724"/>
+    <protectedRange name="p876b24caa4ca26c1769baafe1dc762fc" sqref="A90:G90" password="C724"/>
+    <protectedRange name="p5f420aafe0f1f439ce219917363b06c8" sqref="A91:G91" password="C724"/>
+    <protectedRange name="p2ad8768fe2b1c5204d056cff7045ef16" sqref="A92:G92" password="C724"/>
+    <protectedRange name="p0630feba66d16ab35f3bbc2d040bbfcc" sqref="A93:G93" password="C724"/>
+    <protectedRange name="pa19dc8828b7becda560842e4b56a3f39" sqref="A94:G94" password="C724"/>
+    <protectedRange name="p3bee1da2eb09ee9ae6a867b2cee7c271" sqref="A95:G95" password="C724"/>
+    <protectedRange name="pd37e3d8ead4bf0f3abf24aff487a5d66" sqref="A96:G96" password="C724"/>
+    <protectedRange name="p9ae281356b7b4f306f083b76412cbb32" sqref="A97:G97" password="C724"/>
+    <protectedRange name="p1968e55a5439119811afa6621fbfcf78" sqref="A98:G98" password="C724"/>
+    <protectedRange name="p0d373863096fc538a4bb6e5a1b64a87c" sqref="A99:G99" password="C724"/>
+    <protectedRange name="p7367497cf809a9a881af099f76942d54" sqref="A100:G100" password="C724"/>
+    <protectedRange name="p39e9c4b4b51703ff0d0bfbb458fe4c33" sqref="A101:G101" password="C724"/>
+    <protectedRange name="p5f318ffde23fc006d8c108f42eee1284" sqref="A102:G102" password="C724"/>
+    <protectedRange name="p793865372022a929497945e513844cba" sqref="A103:G103" password="C724"/>
+    <protectedRange name="p94ae21c5fa02eee28fb56bf2f063675d" sqref="A104:G104" password="C724"/>
+    <protectedRange name="pae2513e31f4035d0320f634df7c29ad6" sqref="A105:G105" password="C724"/>
+    <protectedRange name="pefe19807ca95032046758861e1688c63" sqref="A106:G106" password="C724"/>
+    <protectedRange name="p2fba0894c73492bbdaa8695b223eb49f" sqref="A107:G107" password="C724"/>
+    <protectedRange name="p238a5c8d4c7d9bd99f0979bf7f2675d8" sqref="A108:G108" password="C724"/>
+    <protectedRange name="pec0086a725e5e8f928f6e85dbcb7c661" sqref="A109:G109" password="C724"/>
+    <protectedRange name="pe07866249bc6911803ca20089be82e8d" sqref="A110:G110" password="C724"/>
+    <protectedRange name="pf64217f04afc1462f42def0ba6db2582" sqref="A111:G111" password="C724"/>
+    <protectedRange name="pfd43c1206ee0dd8ba48890c6a94b72c7" sqref="A112:G112" password="C724"/>
+    <protectedRange name="pef3a3f98b32aab376aeaab053967438e" sqref="A113:G113" password="C724"/>
+    <protectedRange name="p4d84e353cd48004359d77503b4bc1721" sqref="A114:G114" password="C724"/>
+    <protectedRange name="p3af023ee19fb78b7efec6d133869b636" sqref="A115:G115" password="C724"/>
+    <protectedRange name="p33c9f4f1c66998f46a2a3e7cccc82040" sqref="A116:G116" password="C724"/>
+    <protectedRange name="p7234bb9b3da2b63bf66b2e5f45ff2840" sqref="A117:G117" password="C724"/>
+    <protectedRange name="pfe967c8dbab015d534392b9acfa4025d" sqref="A118:G118" password="C724"/>
+    <protectedRange name="p84e0435ec3bbefdd09e52f36eb89248f" sqref="A119:G119" password="C724"/>
+    <protectedRange name="p0a56ede98becb768655fb3efd3d65d95" sqref="A120:G120" password="C724"/>
+    <protectedRange name="p6e21dd736cfe62da67f90910eb553079" sqref="A121:G121" password="C724"/>
+    <protectedRange name="p40c62af6959d004ed07f27d81619c40b" sqref="A122:G122" password="C724"/>
+    <protectedRange name="pef2124efd11dea7006d8171c6d27e5a4" sqref="A123:G123" password="C724"/>
+    <protectedRange name="p72660514b394f71fc33d8de193fd5c1c" sqref="A124:G124" password="C724"/>
+    <protectedRange name="pe0e9d34d424e0d40d65ad95043cc17c9" sqref="A125:G125" password="C724"/>
+    <protectedRange name="p081b77e1e204b425a61196717b67e650" sqref="A126:G126" password="C724"/>
+    <protectedRange name="pf69be44e5a30ceb47fda2d741674e653" sqref="A127:G127" password="C724"/>
+    <protectedRange name="pfafd284678a06196cbf9c14221e7906c" sqref="A128:G128" password="C724"/>
+    <protectedRange name="pc99977b86c4d0a530b06166c780a8d5a" sqref="A129:G129" password="C724"/>
+    <protectedRange name="pdca24d14085d9b422e21b6dfd15deea6" sqref="A130:G130" password="C724"/>
+    <protectedRange name="p4946886798e49956bcfca6b19dd45784" sqref="A131:G131" password="C724"/>
+    <protectedRange name="pb0dc1d55917fbd7f300707a1b7e54cd1" sqref="A132:G132" password="C724"/>
+    <protectedRange name="p227c3cebc240edb22c9c484e245880fb" sqref="A133:G133" password="C724"/>
+    <protectedRange name="pf6b60863e689cd5925aa9f3ee6e2722e" sqref="A134:G134" password="C724"/>
+    <protectedRange name="p4403e6bf0db0ee555556d2597de55b19" sqref="A135:G135" password="C724"/>
+    <protectedRange name="p20ded3e20563e04cc97db9d3ac7c1b39" sqref="A136:G136" password="C724"/>
+    <protectedRange name="p8b51a398567529e48fa74c89a50c2fa1" sqref="A137:G137" password="C724"/>
+    <protectedRange name="pb2f2a1ea8088d70e32b94f648ede9a43" sqref="A138:G138" password="C724"/>
+    <protectedRange name="p1c37acc389babb179d4a7c9d1b07abb4" sqref="A139:G139" password="C724"/>
+    <protectedRange name="pf6c0bab1e98cbeb749fee17f71edb834" sqref="A140:G140" password="C724"/>
+    <protectedRange name="p2f1093c45ffb20a37d5edeaa53831645" sqref="A141:G141" password="C724"/>
+    <protectedRange name="p53f9a0274fff43ae9940d0d5487e316b" sqref="A142:G142" password="C724"/>
+    <protectedRange name="p636f9b52d504c0c8714a16f2094e5c27" sqref="A143:G143" password="C724"/>
+    <protectedRange name="p2a98cd5d05792afacf24aae65421302d" sqref="A144:G144" password="C724"/>
+    <protectedRange name="p4ae8694ace66c27d56b09bc5291fdfad" sqref="A145:G145" password="C724"/>
+    <protectedRange name="p75928b652483984256a4fea0748b7672" sqref="A146:G146" password="C724"/>
+    <protectedRange name="p9117936795d7e84735fecf9c569fd6a8" sqref="A147:G147" password="C724"/>
+    <protectedRange name="p110e62f8c3cc175604897872330d799e" sqref="A148:G148" password="C724"/>
+    <protectedRange name="pd270cb8ea3c7f0142208fa6e9de205d5" sqref="A149:G149" password="C724"/>
+    <protectedRange name="p327ce13cb073059b82d43e25ebd65bdd" sqref="A150:G150" password="C724"/>
+    <protectedRange name="p69d443922250fd4057aa912199f17872" sqref="A151:G151" password="C724"/>
+    <protectedRange name="p473babecf580abfc1e6ff0724a4524fd" sqref="A152:G152" password="C724"/>
+    <protectedRange name="pa88125b6e231e82d3738cff2e4df5719" sqref="A153:G153" password="C724"/>
+    <protectedRange name="p2331e947fa85124fa055329ef3bd21fd" sqref="A154:G154" password="C724"/>
+    <protectedRange name="p4c75b023ad615b1315392d01c1cc25ea" sqref="A155:G155" password="C724"/>
+    <protectedRange name="pd481c4c453dad4707e370dfd85c9b4e9" sqref="A156:G156" password="C724"/>
+    <protectedRange name="p5c4a24dd579dfbbc66eff5057901ec84" sqref="A157:G157" password="C724"/>
+    <protectedRange name="pcce3d815cad509831a60c184e2ec3b70" sqref="A158:G158" password="C724"/>
+    <protectedRange name="pb391e0a5b5017ebf37af9f826d03d502" sqref="A159:G159" password="C724"/>
+    <protectedRange name="p58ffe85f17e2a55ff3dd63f44a6cef35" sqref="A160:G160" password="C724"/>
+    <protectedRange name="pcea8899405ed4f973701bc2b0652fb9d" sqref="A161:G161" password="C724"/>
+    <protectedRange name="p7037ca80b36b25c7a59f93d556354326" sqref="A162:G162" password="C724"/>
+    <protectedRange name="paab7a3dc7c06829877f6de8981aa2768" sqref="A163:G163" password="C724"/>
+    <protectedRange name="p125415f97dab89e1be318783eb998241" sqref="A164:G164" password="C724"/>
+    <protectedRange name="p18c2ef0a379db8ac0fac1379c7c6c279" sqref="A165:G165" password="C724"/>
+    <protectedRange name="p6f2e0ce518102c6fa37a240176352180" sqref="A166:G166" password="C724"/>
+    <protectedRange name="p4d41837f78ebeb5131b2064b2d38b3e1" sqref="A167:G167" password="C724"/>
+    <protectedRange name="p964c359ca62d1023243deffb8be5b1d3" sqref="A168:G168" password="C724"/>
+    <protectedRange name="p991bfce0b7d1310906da5978d7ef3382" sqref="A169:G169" password="C724"/>
+    <protectedRange name="p6617fdfcc97f6e82d34cf3667b55819c" sqref="A170:G170" password="C724"/>
+    <protectedRange name="pe83eee7035f692a8d902d010319a80a3" sqref="A171:G171" password="C724"/>
+    <protectedRange name="p12f126b53a6661728581ea331fa83f3b" sqref="A172:G172" password="C724"/>
+    <protectedRange name="p6f28f42fd09f4544872726784ac1c309" sqref="A173:G173" password="C724"/>
+    <protectedRange name="p4cc6a3fdf4f40a6d7d2dfb30eb286211" sqref="A174:G174" password="C724"/>
+    <protectedRange name="p5f2cee7a6e82439c56070b7f5d990cf6" sqref="A175:G175" password="C724"/>
+    <protectedRange name="p6fa586c3f51a0243096c530277490f01" sqref="A176:G176" password="C724"/>
+    <protectedRange name="p3f114bed1c5f70b6a548c5163f786ef7" sqref="A177:G177" password="C724"/>
+    <protectedRange name="pd165d8b2c1461ea04a0a0dd9aa6562c4" sqref="A178:G178" password="C724"/>
+    <protectedRange name="p0d3e7ca7458d77a54e92ab5d04d8ead4" sqref="A179:G179" password="C724"/>
+    <protectedRange name="p1a96d2451273cb9d5378d2914ee52695" sqref="A180:G180" password="C724"/>
+    <protectedRange name="pa6b6fef51fe910635453ee8eb451092d" sqref="A181:G181" password="C724"/>
+    <protectedRange name="p12b0b5abaf08fb94e8b25df83c70ecdc" sqref="A182:G182" password="C724"/>
+    <protectedRange name="pc7d7ec756da8337f01ceb5f6403a93dc" sqref="A183:G183" password="C724"/>
+    <protectedRange name="p2542f1a64b25015dfe2cf51388872732" sqref="A184:G184" password="C724"/>
+    <protectedRange name="p825751f54e6e28150bc393eee326bc76" sqref="A185:G185" password="C724"/>
+    <protectedRange name="p91e66c7583b917232465245ae2270527" sqref="A186:G186" password="C724"/>
+    <protectedRange name="p89712432e86bdfe5abdedaa86e5a9905" sqref="A187:G187" password="C724"/>
+    <protectedRange name="pe48009af1ec58fc004543f8b425f65a8" sqref="A188:G188" password="C724"/>
+    <protectedRange name="p51147ac268e17ff5f426c986f0ace8f3" sqref="A189:G189" password="C724"/>
+    <protectedRange name="p9d4569ac072e18c85b9db097f655df94" sqref="A190:G190" password="C724"/>
+    <protectedRange name="pcdd5144c04883cf3a80743aa6eada851" sqref="A191:G191" password="C724"/>
+    <protectedRange name="pbf99bddd7ffa3f86485b3997c3ce7b7b" sqref="A192:G192" password="C724"/>
+    <protectedRange name="p1924d69af3d9ce5bc49ec38093969bbb" sqref="A193:G193" password="C724"/>
+    <protectedRange name="pf3c103097aa3dc1ed25da5bc0e5ba4a6" sqref="A194:G194" password="C724"/>
+    <protectedRange name="pa5cba8da7ce018dfb933591cdd6e5125" sqref="A195:G195" password="C724"/>
+    <protectedRange name="pb4802893770ae6959d0061bed0f70dda" sqref="A196:G196" password="C724"/>
+    <protectedRange name="p823d83459dc65e2bb8b98ffe8340fbc4" sqref="A197:G197" password="C724"/>
+    <protectedRange name="p5bce8f276540fb7340e26127caf0e6ac" sqref="A198:G198" password="C724"/>
+    <protectedRange name="pa84f9816f510e37ce2568153576d6768" sqref="A199:G199" password="C724"/>
+    <protectedRange name="pc7f5af1a785c9b16c71e2a526f800cf3" sqref="A200:G200" password="C724"/>
+    <protectedRange name="pcb8c4857ccfb96bd520a4aa4c8a1b8e8" sqref="A201:G201" password="C724"/>
+    <protectedRange name="p15e8fdfad88f60d49b3e036c0ad060ce" sqref="A202:G202" password="C724"/>
+    <protectedRange name="pcf61555cada4f1d5107f042facb5dadd" sqref="A203:G203" password="C724"/>
+    <protectedRange name="pf52bf52f3a18b67a93c57f7bdef768dd" sqref="A204:G204" password="C724"/>
+    <protectedRange name="p1f63f990e27e27232b39b171edb7cbba" sqref="A205:G205" password="C724"/>
+    <protectedRange name="p64cf005f01ca778d153d8d71ef9b5904" sqref="A206:G206" password="C724"/>
+    <protectedRange name="pc5f9f76f0fbcd6a57e89f88bd832d719" sqref="A207:G207" password="C724"/>
+    <protectedRange name="pf37c4bf0e47070c6d6bc7af9ceb6a78d" sqref="A208:G208" password="C724"/>
+    <protectedRange name="p0a76a9347f2a1a2d92fca1fe3697ae9b" sqref="A209:G209" password="C724"/>
+    <protectedRange name="p24993e985498e2bac73d98a02d4f1e1d" sqref="A210:G210" password="C724"/>
+    <protectedRange name="pf65ac82d4c189090133297367103869b" sqref="A211:G211" password="C724"/>
+    <protectedRange name="pb420434b0d24a9a13635355a4e130e8e" sqref="A212:G212" password="C724"/>
+    <protectedRange name="p33e78c2f88d78f2e214ca8a444e294dc" sqref="A213:G213" password="C724"/>
+    <protectedRange name="p16b2da9236977090f211a3e249b5e1a1" sqref="A214:G214" password="C724"/>
+    <protectedRange name="p2fc5c6b121baab201fd2a6d36af5c10a" sqref="A215:G215" password="C724"/>
+    <protectedRange name="p95d12eb81a6e772e71f49aa479c462b9" sqref="A216:G216" password="C724"/>
+    <protectedRange name="p0a91a86d6efe1728edd65282ab99548f" sqref="A217:G217" password="C724"/>
+    <protectedRange name="p9dc8124acfdd255b20460e1f8582d136" sqref="A218:G218" password="C724"/>
+    <protectedRange name="p8510a15e547e78e339f09c7aa3af72c6" sqref="A219:G219" password="C724"/>
+    <protectedRange name="p95cebbab0e1fc17d2a69c27588690af1" sqref="A220:G220" password="C724"/>
+    <protectedRange name="p32f8f6be4a968a675625282b65897ea1" sqref="A221:G221" password="C724"/>
+    <protectedRange name="p92665bb7cbf1167c893b69f6ead31800" sqref="A222:G222" password="C724"/>
+    <protectedRange name="p3d9b92bbdd6b1f88ea03191df79b82d6" sqref="A223:G223" password="C724"/>
+    <protectedRange name="p9b760e16400574544ece2bb147ee14de" sqref="A224:G224" password="C724"/>
+    <protectedRange name="pe58699d2bf5da82717846a5742e26892" sqref="A225:G225" password="C724"/>
+    <protectedRange name="pc4ae324b62011f613410f3fcb31c6f57" sqref="A226:G226" password="C724"/>
+    <protectedRange name="p2d4af47499cb2b9e3d3e535494e25845" sqref="A227:G227" password="C724"/>
+    <protectedRange name="pb346fe03a6bad63d39de5bf8270216b0" sqref="A228:G228" password="C724"/>
+    <protectedRange name="pe6398e2de07c662363303ace0cd20ce6" sqref="A229:G229" password="C724"/>
+    <protectedRange name="p0e94d7a24f432a4c70a0c60f07908dd6" sqref="A230:G230" password="C724"/>
+    <protectedRange name="p73272cf62554973fdcb2cfb7f78bd1f4" sqref="A231:G231" password="C724"/>
+    <protectedRange name="p0f54e4395598302765e87b99ddb00349" sqref="A232:G232" password="C724"/>
+    <protectedRange name="p95ce20e96b8d6c19059499cace27ed92" sqref="A233:G233" password="C724"/>
+    <protectedRange name="p6a9007bc1dee43749cbf28b52c157e82" sqref="A234:G234" password="C724"/>
+    <protectedRange name="p06f3dbbf395eb0edec3c12f593317010" sqref="A235:G235" password="C724"/>
+    <protectedRange name="p2ef56400f80b3b553a01206ac2d7a344" sqref="A236:G236" password="C724"/>
+    <protectedRange name="pbb2eb29ba27624c11e680ec3b95e153c" sqref="A237:G237" password="C724"/>
+    <protectedRange name="p5271f2db7006d7cbc9263fb1e0498b60" sqref="A238:G238" password="C724"/>
+    <protectedRange name="p41e329fbeb7a50c6436f952960daea59" sqref="A239:G239" password="C724"/>
+    <protectedRange name="p86720a450edc7333880a3e7c78b9d7f9" sqref="A240:G240" password="C724"/>
+    <protectedRange name="p674ee9fb45c0147d848c4256a097ec32" sqref="A241:G241" password="C724"/>
+    <protectedRange name="pa105bbee633c5f8e0f546dc8fae4124e" sqref="A242:G242" password="C724"/>
+    <protectedRange name="paaba14eef18e1573a339a966287333ee" sqref="A243:G243" password="C724"/>
+    <protectedRange name="p89e1f4ce40b4d2cc3a9de090e505d285" sqref="A244:G244" password="C724"/>
+    <protectedRange name="p5d378e3a6d862901fd295adab0854a36" sqref="A245:G245" password="C724"/>
+    <protectedRange name="p0dcdcf1113823b0e84019b1624c75f52" sqref="A246:G246" password="C724"/>
+    <protectedRange name="p19b247fabcf8678b9305251f7a4253e0" sqref="A247:G247" password="C724"/>
+    <protectedRange name="p06d486aedb1dc92245787b721d53685f" sqref="A248:G248" password="C724"/>
+    <protectedRange name="pfe349cca173e8f7404ea970e2f602fe1" sqref="A249:G249" password="C724"/>
+    <protectedRange name="p702dbc6cd0e35899281755357442697d" sqref="A250:G250" password="C724"/>
+    <protectedRange name="p9beba8b1c347d33f33d036a72a075d7d" sqref="A251:G251" password="C724"/>
+    <protectedRange name="p69cd75e3b0765b0cb8afd605907a5ee3" sqref="A252:G252" password="C724"/>
+    <protectedRange name="p837ad65a4b64703421b11e1e169d3a2a" sqref="A253:G253" password="C724"/>
+    <protectedRange name="p60d84ea12ca5d755b819a12a64338224" sqref="A254:G254" password="C724"/>
+    <protectedRange name="p8b5a9bf50337ee8e7875ab5044dcaad6" sqref="A255:G255" password="C724"/>
+    <protectedRange name="p649f9234c6a697f7ef13e63fac8326de" sqref="A256:G256" password="C724"/>
+    <protectedRange name="pe737793bf09f2da642fb99f54be40da0" sqref="A257:G257" password="C724"/>
+    <protectedRange name="pf4148203d7f6e99833533b4c691275a4" sqref="A258:G258" password="C724"/>
+    <protectedRange name="pa0cb7541e3ce1c6bfe6cd409fd4556c0" sqref="A259:G259" password="C724"/>
+    <protectedRange name="pbc4665b03b1bb05f4e9aedc98e3a98b2" sqref="A260:G260" password="C724"/>
+    <protectedRange name="p77fc8bdb0f97f53dc347999cf6e0104c" sqref="A261:G261" password="C724"/>
+    <protectedRange name="pd056597ec27eeea372b14dc1ae12b255" sqref="A262:G262" password="C724"/>
+    <protectedRange name="p6337a1549fd62738610e91a78a7b6ecd" sqref="A263:G263" password="C724"/>
+    <protectedRange name="p7822cbde4c9a27c4c85f4a056277a607" sqref="A264:G264" password="C724"/>
+    <protectedRange name="p61e4b6f8d213ec1aa0d48f2098522294" sqref="A265:G265" password="C724"/>
+    <protectedRange name="pd86156df7ac6f3312deedbf00eb5185e" sqref="A266:G266" password="C724"/>
+    <protectedRange name="pe2f6ed9a0460a80a2939d4947f42bb7a" sqref="A267:G267" password="C724"/>
+    <protectedRange name="p7a972490518b33c09d0e9f54257d8dc0" sqref="A268:G268" password="C724"/>
+    <protectedRange name="pe020ae882d6503f0d5f62a3b83109442" sqref="A269:G269" password="C724"/>
+    <protectedRange name="pecdaa340b877902daea9c730508dbb9b" sqref="A270:G270" password="C724"/>
+    <protectedRange name="p823e115992744326af9c6c4703a93199" sqref="A271:G271" password="C724"/>
+    <protectedRange name="p0e827fd0488ac9c029e888883c2a68f3" sqref="A272:G272" password="C724"/>
+    <protectedRange name="pfa32144bda5e5d80aed194edd548b9cd" sqref="A273:G273" password="C724"/>
+    <protectedRange name="pd9ff17ff6915bf35091d3c4e526e2bc4" sqref="A274:G274" password="C724"/>
+    <protectedRange name="p02a4b9a0ab3b5332acba2afdecaba60d" sqref="A275:G275" password="C724"/>
+    <protectedRange name="p697b7eba8f72f04fed68a814024306d5" sqref="A276:G276" password="C724"/>
+    <protectedRange name="peaa47a7858f39e86d7be84d14daec1e0" sqref="A277:G277" password="C724"/>
+    <protectedRange name="pdaf2c123e98a0a6c3cf43fc17febab3e" sqref="A278:G278" password="C724"/>
+    <protectedRange name="p9fec564291ba27c9d6a5bfa7ea5a599e" sqref="A279:G279" password="C724"/>
+    <protectedRange name="p2a648f9bcbdde66369458aa0e9485b59" sqref="A280:G280" password="C724"/>
+    <protectedRange name="p6ff411cd2ff4b6d7447de9e36ef47ef3" sqref="A281:G281" password="C724"/>
+    <protectedRange name="pb7f4ccc03a090f178d92dde1f1bddf44" sqref="A282:G282" password="C724"/>
+    <protectedRange name="p49ec0554ae7cdc3bc8c3bf59881eee82" sqref="A283:G283" password="C724"/>
+    <protectedRange name="p22fa71a453a58134868e9fc54171a0ce" sqref="A284:G284" password="C724"/>
+    <protectedRange name="pab2fa5aa6ad8dbbd27945d9cd9a95cd2" sqref="A285:G285" password="C724"/>
+    <protectedRange name="pe1df8db4ce516a18234ca9dfa5ebe422" sqref="A286:G286" password="C724"/>
+    <protectedRange name="p66729428368982525e0a27027cec7c96" sqref="A287:G287" password="C724"/>
+    <protectedRange name="p0753b0d1e7cbc8820986201460917c03" sqref="A288:G288" password="C724"/>
+    <protectedRange name="p5c33f9009e937c51af360059c4bb3039" sqref="A289:G289" password="C724"/>
+    <protectedRange name="p85ece797fe17ade97007278be294d1df" sqref="A290:G290" password="C724"/>
+    <protectedRange name="pf5d58246a3b68724f02c5b5ee2517d90" sqref="A291:G291" password="C724"/>
+    <protectedRange name="p9b8d9d514306e19d67f0228c61dd0862" sqref="A292:G292" password="C724"/>
+    <protectedRange name="pd4023ac5cacb1cf6c1f1c863a13c288d" sqref="A293:G293" password="C724"/>
+    <protectedRange name="p61688bfacbe70ce06c225da4bfb4d1a1" sqref="A294:G294" password="C724"/>
+    <protectedRange name="p9d175d75e486cddc3bf089502a5a99bd" sqref="A295:G295" password="C724"/>
+    <protectedRange name="p23e7c242277caa0adfba5a9c8ba05560" sqref="A296:G296" password="C724"/>
+    <protectedRange name="p25a23baa682a28e3f7416d1aec2df883" sqref="A297:G297" password="C724"/>
+    <protectedRange name="pc8320fb2805e352ece5ba201402467cf" sqref="A298:G298" password="C724"/>
+    <protectedRange name="p5a5f89ab8505aa654d0d3d145814d6d5" sqref="A299:G299" password="C724"/>
+    <protectedRange name="p1e266095b365ef756bac59b4de609a4b" sqref="A300:G300" password="C724"/>
+    <protectedRange name="p10f170d94f91c4bea2cc09cb7de11930" sqref="A301:G301" password="C724"/>
+    <protectedRange name="p3adf55906ea65a0d1c764c058e00a1be" sqref="A302:G302" password="C724"/>
+    <protectedRange name="p07071cf6b0ccebd4a348d4e68f878eb6" sqref="A303:G303" password="C724"/>
+    <protectedRange name="p6995a52c9524ef73cdf6058d1366d58b" sqref="A304:G304" password="C724"/>
+    <protectedRange name="p01e88c229ed92e0995c1910b206d54d5" sqref="A305:G305" password="C724"/>
+    <protectedRange name="p3801b4e16ce8ac6679720bcd53c3f02f" sqref="A306:G306" password="C724"/>
+    <protectedRange name="p14c343ceff764faff38b4044beed969c" sqref="A307:G307" password="C724"/>
+    <protectedRange name="p079e22997d02efd9a66c9ef2ba756596" sqref="A308:G308" password="C724"/>
+    <protectedRange name="pf8abf2cf4b50d0b9edf5546666f0aa10" sqref="A309:G309" password="C724"/>
+    <protectedRange name="pbe39a16f99a799f0cbdc85efacb28c68" sqref="A310:G310" password="C724"/>
+    <protectedRange name="peb65c2f6b6157b0337e29e332db6f190" sqref="A311:G311" password="C724"/>
+    <protectedRange name="p7fcaad075f4437f21271f0d3e4a96891" sqref="A312:G312" password="C724"/>
+    <protectedRange name="p84978702ad9498f8a918440657331f93" sqref="A313:G313" password="C724"/>
+    <protectedRange name="p755f136167543ef010b9bf9aa24b6d11" sqref="A314:G314" password="C724"/>
+    <protectedRange name="pe7b4cf164aae6061943a5d3140a21e08" sqref="A315:G315" password="C724"/>
+    <protectedRange name="pf29df4165d08d5333d364333c52679fc" sqref="A316:G316" password="C724"/>
+    <protectedRange name="p27f56ec79a3fcb6d70cd2ad94cf2e2ab" sqref="A317:G317" password="C724"/>
+    <protectedRange name="p729848b2e7006f6b5efbad65c58fcfae" sqref="A318:G318" password="C724"/>
+    <protectedRange name="p30f9c005fcd9ed2c0568eedc7a0fd245" sqref="A319:G319" password="C724"/>
+    <protectedRange name="p872e09d37c2d28f47a7fbfae9762671e" sqref="A320:G320" password="C724"/>
+    <protectedRange name="p8cf34d7da0ddb52b489be7f1e01eb108" sqref="A321:G321" password="C724"/>
+    <protectedRange name="p4e5c0987436175d91209866927f56a63" sqref="A322:G322" password="C724"/>
+    <protectedRange name="p085e677c660dd2dc65c4d4a7540836a8" sqref="A323:G323" password="C724"/>
+    <protectedRange name="p3f9b0868de42897163f6477d03b31e73" sqref="A324:G324" password="C724"/>
+    <protectedRange name="p06fd1f7d33e02dd91de9110a9e75d528" sqref="A325:G325" password="C724"/>
+    <protectedRange name="p90b24158aec7cba38a14a31ff0c75b45" sqref="A326:G326" password="C724"/>
+    <protectedRange name="p4bdff5dc3ca9aa2e1238967b78cbc839" sqref="A327:G327" password="C724"/>
+    <protectedRange name="pe2b2265e4727fa08a4c22296054c349b" sqref="A328:G328" password="C724"/>
+    <protectedRange name="pb7902b35f533098332c121c35aa20f20" sqref="A329:G329" password="C724"/>
+    <protectedRange name="p06f57c20292fb688cc56b691598796e2" sqref="A330:G330" password="C724"/>
+    <protectedRange name="p1fdfaf5f48da7ddf1e300f3df17d0cd1" sqref="A331:G331" password="C724"/>
+    <protectedRange name="p60da0c3affa3e4c0e68fca4707124b91" sqref="A332:G332" password="C724"/>
+    <protectedRange name="p610d1b5025c9a4d76f39c58325564d9c" sqref="A333:G333" password="C724"/>
+    <protectedRange name="pc3b71ac425646469d5e7b81b5693b7ff" sqref="A334:G334" password="C724"/>
+    <protectedRange name="p2c75ece5b72a0d323331509086bfd5fe" sqref="A335:G335" password="C724"/>
+    <protectedRange name="p31132cebf798f5aad2653682effbb950" sqref="A336:G336" password="C724"/>
+    <protectedRange name="pbb2848296d4106bf87aa7103a689c3c6" sqref="A337:G337" password="C724"/>
+    <protectedRange name="p1ae5747ff7c9e0c2b5d56556f4b379d1" sqref="A338:G338" password="C724"/>
+    <protectedRange name="pa016577901965cccb07cd404cd9420f6" sqref="A339:G339" password="C724"/>
+    <protectedRange name="p4a3ff7abb150f9dad42d84bfba8f4ce9" sqref="A340:G340" password="C724"/>
+    <protectedRange name="p9dad103da654e2abfaa4d725666c7ac5" sqref="A341:G341" password="C724"/>
+    <protectedRange name="p242f207b34259eb29b58f849f0eb01d8" sqref="A342:G342" password="C724"/>
+    <protectedRange name="pee707fbe287fb5bbc123be2e45d6e783" sqref="A343:G343" password="C724"/>
+    <protectedRange name="pcb43cfd6162b80a04c5dbeaa2aa6cadb" sqref="A344:G344" password="C724"/>
+    <protectedRange name="pe25ec90e9897286576135171431ac56e" sqref="A345:G345" password="C724"/>
+    <protectedRange name="pc9615a89aadd151b8fb90832323bdf5f" sqref="A346:G346" password="C724"/>
+    <protectedRange name="paa44eb0cdd65be8fa755e8bae0f9251b" sqref="A347:G347" password="C724"/>
+    <protectedRange name="pa9dee76718536981b6c7583632590fca" sqref="A348:G348" password="C724"/>
+    <protectedRange name="p745490d06b0c4ea189532c135d7c8e62" sqref="A349:G349" password="C724"/>
+    <protectedRange name="p0329189615f4fde2416be92b8b58eeb7" sqref="A350:G350" password="C724"/>
+    <protectedRange name="pc5a9875079366f93e74fcab48b1f929e" sqref="A351:G351" password="C724"/>
   </protectedRanges>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
